--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3027,28 +3027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3737.923776142507</v>
+        <v>3936.320553729483</v>
       </c>
       <c r="AB2" t="n">
-        <v>5114.392216077023</v>
+        <v>5385.847439819638</v>
       </c>
       <c r="AC2" t="n">
-        <v>4626.281801068996</v>
+        <v>4871.829719247404</v>
       </c>
       <c r="AD2" t="n">
-        <v>3737923.776142506</v>
+        <v>3936320.553729483</v>
       </c>
       <c r="AE2" t="n">
-        <v>5114392.216077022</v>
+        <v>5385847.439819638</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.929627014048207e-07</v>
+        <v>9.990196669961959e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.857421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>4626281.801068996</v>
+        <v>4871829.719247404</v>
       </c>
     </row>
     <row r="3">
@@ -3133,28 +3133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1769.651223212292</v>
+        <v>1898.981058435402</v>
       </c>
       <c r="AB3" t="n">
-        <v>2421.314875101016</v>
+        <v>2598.269661282921</v>
       </c>
       <c r="AC3" t="n">
-        <v>2190.227981758146</v>
+        <v>2350.294451504451</v>
       </c>
       <c r="AD3" t="n">
-        <v>1769651.223212292</v>
+        <v>1898981.058435402</v>
       </c>
       <c r="AE3" t="n">
-        <v>2421314.875101016</v>
+        <v>2598269.661282921</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.092942789362009e-06</v>
+        <v>1.575656726200145e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.80924479166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2190227.981758146</v>
+        <v>2350294.451504451</v>
       </c>
     </row>
     <row r="4">
@@ -3239,28 +3239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1420.240289270295</v>
+        <v>1523.755451470076</v>
       </c>
       <c r="AB4" t="n">
-        <v>1943.2354203591</v>
+        <v>2084.869432047491</v>
       </c>
       <c r="AC4" t="n">
-        <v>1757.775759188069</v>
+        <v>1885.892419585504</v>
       </c>
       <c r="AD4" t="n">
-        <v>1420240.289270295</v>
+        <v>1523755.451470076</v>
       </c>
       <c r="AE4" t="n">
-        <v>1943235.4203591</v>
+        <v>2084869.432047491</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.248397235311757e-06</v>
+        <v>1.799769868957981e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.345703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1757775.759188069</v>
+        <v>1885892.419585504</v>
       </c>
     </row>
     <row r="5">
@@ -3345,28 +3345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1254.554603035054</v>
+        <v>1358.069675726284</v>
       </c>
       <c r="AB5" t="n">
-        <v>1716.536954915449</v>
+        <v>1858.170844134291</v>
       </c>
       <c r="AC5" t="n">
-        <v>1552.713077113065</v>
+        <v>1680.829626729273</v>
       </c>
       <c r="AD5" t="n">
-        <v>1254554.603035054</v>
+        <v>1358069.675726284</v>
       </c>
       <c r="AE5" t="n">
-        <v>1716536.954915449</v>
+        <v>1858170.844134291</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.332239933487657e-06</v>
+        <v>1.920642903310256e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.8125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1552713.077113065</v>
+        <v>1680829.626729273</v>
       </c>
     </row>
     <row r="6">
@@ -3451,28 +3451,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1155.017008106014</v>
+        <v>1258.446739942672</v>
       </c>
       <c r="AB6" t="n">
-        <v>1580.345226244769</v>
+        <v>1721.862348341414</v>
       </c>
       <c r="AC6" t="n">
-        <v>1429.519295880423</v>
+        <v>1557.530222464693</v>
       </c>
       <c r="AD6" t="n">
-        <v>1155017.008106014</v>
+        <v>1258446.739942672</v>
       </c>
       <c r="AE6" t="n">
-        <v>1580345.226244769</v>
+        <v>1721862.348341414</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.384058082137572e-06</v>
+        <v>1.995347284229535e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.95963541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1429519.295880423</v>
+        <v>1557530.222464693</v>
       </c>
     </row>
     <row r="7">
@@ -3557,28 +3557,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1086.04629287504</v>
+        <v>1180.842746424766</v>
       </c>
       <c r="AB7" t="n">
-        <v>1485.976450892543</v>
+        <v>1615.681140763649</v>
       </c>
       <c r="AC7" t="n">
-        <v>1344.156944000405</v>
+        <v>1461.482800311889</v>
       </c>
       <c r="AD7" t="n">
-        <v>1086046.29287504</v>
+        <v>1180842.746424766</v>
       </c>
       <c r="AE7" t="n">
-        <v>1485976.450892543</v>
+        <v>1615681.140763649</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.419817273007694e-06</v>
+        <v>2.046900037188245e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.40625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1344156.944000405</v>
+        <v>1461482.800311889</v>
       </c>
     </row>
     <row r="8">
@@ -3663,28 +3663,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1038.945876900284</v>
+        <v>1125.27964436367</v>
       </c>
       <c r="AB8" t="n">
-        <v>1421.531583832182</v>
+        <v>1539.657253252597</v>
       </c>
       <c r="AC8" t="n">
-        <v>1285.862604603346</v>
+        <v>1392.714525924695</v>
       </c>
       <c r="AD8" t="n">
-        <v>1038945.876900284</v>
+        <v>1125279.64436367</v>
       </c>
       <c r="AE8" t="n">
-        <v>1421531.583832182</v>
+        <v>1539657.253252597</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.439517506098023e-06</v>
+        <v>2.075301162186385e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.11328125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1285862.604603346</v>
+        <v>1392714.525924695</v>
       </c>
     </row>
     <row r="9">
@@ -3769,28 +3769,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1036.223389488499</v>
+        <v>1122.557156951885</v>
       </c>
       <c r="AB9" t="n">
-        <v>1417.80655644771</v>
+        <v>1535.932225868125</v>
       </c>
       <c r="AC9" t="n">
-        <v>1282.49308860434</v>
+        <v>1389.345009925689</v>
       </c>
       <c r="AD9" t="n">
-        <v>1036223.389488499</v>
+        <v>1122557.156951885</v>
       </c>
       <c r="AE9" t="n">
-        <v>1417806.55644771</v>
+        <v>1535932.225868125</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.44241185313973e-06</v>
+        <v>2.079473839318813e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.07096354166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1282493.08860434</v>
+        <v>1389345.009925689</v>
       </c>
     </row>
     <row r="10">
@@ -3875,28 +3875,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1040.203849829404</v>
+        <v>1126.537617292789</v>
       </c>
       <c r="AB10" t="n">
-        <v>1423.252797891652</v>
+        <v>1541.378467312067</v>
       </c>
       <c r="AC10" t="n">
-        <v>1287.41954840872</v>
+        <v>1394.271469730069</v>
       </c>
       <c r="AD10" t="n">
-        <v>1040203.849829404</v>
+        <v>1126537.61729279</v>
       </c>
       <c r="AE10" t="n">
-        <v>1423252.797891652</v>
+        <v>1541378.467312067</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.44241185313973e-06</v>
+        <v>2.079473839318813e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.07096354166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1287419.54840872</v>
+        <v>1394271.469730069</v>
       </c>
     </row>
   </sheetData>
@@ -4172,28 +4172,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2585.927065751307</v>
+        <v>2745.772772441793</v>
       </c>
       <c r="AB2" t="n">
-        <v>3538.179494411704</v>
+        <v>3756.88744220052</v>
       </c>
       <c r="AC2" t="n">
-        <v>3200.500609331025</v>
+        <v>3398.335377541402</v>
       </c>
       <c r="AD2" t="n">
-        <v>2585927.065751307</v>
+        <v>2745772.772441793</v>
       </c>
       <c r="AE2" t="n">
-        <v>3538179.494411704</v>
+        <v>3756887.44220052</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.520804171760404e-07</v>
+        <v>1.247413676372673e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.89778645833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3200500.609331025</v>
+        <v>3398335.377541402</v>
       </c>
     </row>
     <row r="3">
@@ -4278,28 +4278,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1409.919628808261</v>
+        <v>1519.346135023301</v>
       </c>
       <c r="AB3" t="n">
-        <v>1929.114237399542</v>
+        <v>2078.836410759701</v>
       </c>
       <c r="AC3" t="n">
-        <v>1745.002282110966</v>
+        <v>1880.435181382021</v>
       </c>
       <c r="AD3" t="n">
-        <v>1409919.628808261</v>
+        <v>1519346.135023301</v>
       </c>
       <c r="AE3" t="n">
-        <v>1929114.237399542</v>
+        <v>2078836.410759701</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.224805233530874e-06</v>
+        <v>1.793068785998852e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.67057291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1745002.282110966</v>
+        <v>1880435.181382021</v>
       </c>
     </row>
     <row r="4">
@@ -4384,28 +4384,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1161.672119042676</v>
+        <v>1254.26386765626</v>
       </c>
       <c r="AB4" t="n">
-        <v>1589.451042631084</v>
+        <v>1716.139157943844</v>
       </c>
       <c r="AC4" t="n">
-        <v>1437.756065930921</v>
+        <v>1552.353245326118</v>
       </c>
       <c r="AD4" t="n">
-        <v>1161672.119042676</v>
+        <v>1254263.86765626</v>
       </c>
       <c r="AE4" t="n">
-        <v>1589451.042631084</v>
+        <v>1716139.157943844</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.365337653275959e-06</v>
+        <v>1.998802961823182e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.02734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1437756.065930921</v>
+        <v>1552353.245326118</v>
       </c>
     </row>
     <row r="5">
@@ -4490,28 +4490,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1022.758809538803</v>
+        <v>1123.597210489697</v>
       </c>
       <c r="AB5" t="n">
-        <v>1399.383724145193</v>
+        <v>1537.355273002483</v>
       </c>
       <c r="AC5" t="n">
-        <v>1265.828505560167</v>
+        <v>1390.632243438802</v>
       </c>
       <c r="AD5" t="n">
-        <v>1022758.809538803</v>
+        <v>1123597.210489697</v>
       </c>
       <c r="AE5" t="n">
-        <v>1399383.724145193</v>
+        <v>1537355.273002482</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.441447307405943e-06</v>
+        <v>2.110224632303987e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.81315104166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1265828.505560167</v>
+        <v>1390632.243438802</v>
       </c>
     </row>
     <row r="6">
@@ -4596,28 +4596,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>959.632761799641</v>
+        <v>1052.053828704082</v>
       </c>
       <c r="AB6" t="n">
-        <v>1313.011880703794</v>
+        <v>1439.466461772159</v>
       </c>
       <c r="AC6" t="n">
-        <v>1187.699869633172</v>
+        <v>1302.085802964491</v>
       </c>
       <c r="AD6" t="n">
-        <v>959632.761799641</v>
+        <v>1052053.828704082</v>
       </c>
       <c r="AE6" t="n">
-        <v>1313011.880703794</v>
+        <v>1439466.461772159</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.476604558806088e-06</v>
+        <v>2.161693525774816e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.29231770833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1187699.869633172</v>
+        <v>1302085.802964491</v>
       </c>
     </row>
     <row r="7">
@@ -4702,28 +4702,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>953.8245449481625</v>
+        <v>1046.245611852604</v>
       </c>
       <c r="AB7" t="n">
-        <v>1305.064822167159</v>
+        <v>1431.519403235523</v>
       </c>
       <c r="AC7" t="n">
-        <v>1180.511267209506</v>
+        <v>1294.897200540825</v>
       </c>
       <c r="AD7" t="n">
-        <v>953824.5449481625</v>
+        <v>1046245.611852604</v>
       </c>
       <c r="AE7" t="n">
-        <v>1305064.822167159</v>
+        <v>1431519.403235523</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.480854336447864e-06</v>
+        <v>2.167915040370191e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.23046875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1180511.267209506</v>
+        <v>1294897.200540825</v>
       </c>
     </row>
   </sheetData>
@@ -4999,28 +4999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1001.428752118169</v>
+        <v>1102.403505663287</v>
       </c>
       <c r="AB2" t="n">
-        <v>1370.19899856656</v>
+        <v>1508.357111058721</v>
       </c>
       <c r="AC2" t="n">
-        <v>1239.42912922974</v>
+        <v>1364.401625371777</v>
       </c>
       <c r="AD2" t="n">
-        <v>1001428.752118169</v>
+        <v>1102403.505663287</v>
       </c>
       <c r="AE2" t="n">
-        <v>1370198.99856656</v>
+        <v>1508357.111058721</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.371015243640542e-06</v>
+        <v>2.121129810320055e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.58919270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1239429.12922974</v>
+        <v>1364401.625371777</v>
       </c>
     </row>
     <row r="3">
@@ -5105,28 +5105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>777.6018535630402</v>
+        <v>870.7239775193466</v>
       </c>
       <c r="AB3" t="n">
-        <v>1063.94916141758</v>
+        <v>1191.362959672761</v>
       </c>
       <c r="AC3" t="n">
-        <v>962.4073467139121</v>
+        <v>1077.660950890008</v>
       </c>
       <c r="AD3" t="n">
-        <v>777601.8535630403</v>
+        <v>870723.9775193466</v>
       </c>
       <c r="AE3" t="n">
-        <v>1063949.16141758</v>
+        <v>1191362.959672761</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.552509597094726e-06</v>
+        <v>2.401923977490794e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.59765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>962407.3467139121</v>
+        <v>1077660.950890008</v>
       </c>
     </row>
     <row r="4">
@@ -5211,28 +5211,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>782.8569605816167</v>
+        <v>875.9790845379235</v>
       </c>
       <c r="AB4" t="n">
-        <v>1071.139430679355</v>
+        <v>1198.553228934537</v>
       </c>
       <c r="AC4" t="n">
-        <v>968.9113867689501</v>
+        <v>1084.164990945046</v>
       </c>
       <c r="AD4" t="n">
-        <v>782856.9605816167</v>
+        <v>875979.0845379236</v>
       </c>
       <c r="AE4" t="n">
-        <v>1071139.430679356</v>
+        <v>1198553.228934537</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.552401821350395e-06</v>
+        <v>2.401757235111239e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.59765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>968911.3867689501</v>
+        <v>1084164.990945046</v>
       </c>
     </row>
   </sheetData>
@@ -5508,28 +5508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1437.77764629455</v>
+        <v>1558.014288116147</v>
       </c>
       <c r="AB2" t="n">
-        <v>1967.230805933274</v>
+        <v>2131.74388373985</v>
       </c>
       <c r="AC2" t="n">
-        <v>1779.481058840779</v>
+        <v>1928.29323939705</v>
       </c>
       <c r="AD2" t="n">
-        <v>1437777.64629455</v>
+        <v>1558014.288116147</v>
       </c>
       <c r="AE2" t="n">
-        <v>1967230.805933274</v>
+        <v>2131743.88373985</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.159216650044177e-06</v>
+        <v>1.751917131326325e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.95182291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1779481.058840779</v>
+        <v>1928293.23939705</v>
       </c>
     </row>
     <row r="3">
@@ -5614,28 +5614,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>919.1137387158207</v>
+        <v>1015.285984002184</v>
       </c>
       <c r="AB3" t="n">
-        <v>1257.571965747374</v>
+        <v>1389.159074568195</v>
       </c>
       <c r="AC3" t="n">
-        <v>1137.551062349783</v>
+        <v>1256.579682188412</v>
       </c>
       <c r="AD3" t="n">
-        <v>919113.7387158207</v>
+        <v>1015285.984002184</v>
       </c>
       <c r="AE3" t="n">
-        <v>1257571.965747374</v>
+        <v>1389159.074568195</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.473482624369059e-06</v>
+        <v>2.226865402809259e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.77669270833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1137551.062349783</v>
+        <v>1256579.682188412</v>
       </c>
     </row>
     <row r="4">
@@ -5720,28 +5720,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>831.9756963572337</v>
+        <v>928.0626007890254</v>
       </c>
       <c r="AB4" t="n">
-        <v>1138.34585193324</v>
+        <v>1269.816193631864</v>
       </c>
       <c r="AC4" t="n">
-        <v>1029.703721503168</v>
+        <v>1148.626718309859</v>
       </c>
       <c r="AD4" t="n">
-        <v>831975.6963572337</v>
+        <v>928062.6007890254</v>
       </c>
       <c r="AE4" t="n">
-        <v>1138345.85193324</v>
+        <v>1269816.193631864</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.537098800930231e-06</v>
+        <v>2.323008146741337e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.8359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1029703.721503169</v>
+        <v>1148626.718309859</v>
       </c>
     </row>
     <row r="5">
@@ -5826,28 +5826,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>837.1453231614208</v>
+        <v>933.2322275932127</v>
       </c>
       <c r="AB5" t="n">
-        <v>1145.419163394567</v>
+        <v>1276.889505093191</v>
       </c>
       <c r="AC5" t="n">
-        <v>1036.101966046082</v>
+        <v>1155.024962852772</v>
       </c>
       <c r="AD5" t="n">
-        <v>837145.3231614209</v>
+        <v>933232.2275932126</v>
       </c>
       <c r="AE5" t="n">
-        <v>1145419.163394568</v>
+        <v>1276889.505093191</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.536686378391747e-06</v>
+        <v>2.322384855046477e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.83919270833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1036101.966046082</v>
+        <v>1155024.962852772</v>
       </c>
     </row>
   </sheetData>
@@ -6123,28 +6123,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>761.2355286612102</v>
+        <v>859.329398234902</v>
       </c>
       <c r="AB2" t="n">
-        <v>1041.5560336556</v>
+        <v>1175.772393602424</v>
       </c>
       <c r="AC2" t="n">
-        <v>942.151387636583</v>
+        <v>1063.558326563927</v>
       </c>
       <c r="AD2" t="n">
-        <v>761235.5286612102</v>
+        <v>859329.3982349019</v>
       </c>
       <c r="AE2" t="n">
-        <v>1041556.0336556</v>
+        <v>1175772.393602424</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.518499072398538e-06</v>
+        <v>2.399969547272163e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.99739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>942151.3876365829</v>
+        <v>1063558.326563927</v>
       </c>
     </row>
     <row r="3">
@@ -6229,28 +6229,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>744.979054915737</v>
+        <v>835.6847945614309</v>
       </c>
       <c r="AB3" t="n">
-        <v>1019.313209092038</v>
+        <v>1143.420803730087</v>
       </c>
       <c r="AC3" t="n">
-        <v>922.0313870313672</v>
+        <v>1034.294327023264</v>
       </c>
       <c r="AD3" t="n">
-        <v>744979.054915737</v>
+        <v>835684.7945614308</v>
       </c>
       <c r="AE3" t="n">
-        <v>1019313.209092038</v>
+        <v>1143420.803730087</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.543348460137921e-06</v>
+        <v>2.439243706161623e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.61002604166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>922031.3870313672</v>
+        <v>1034294.327023264</v>
       </c>
     </row>
   </sheetData>
@@ -6526,28 +6526,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2842.84982135587</v>
+        <v>3012.248133550105</v>
       </c>
       <c r="AB2" t="n">
-        <v>3889.712543261905</v>
+        <v>4121.490787332164</v>
       </c>
       <c r="AC2" t="n">
-        <v>3518.483837378684</v>
+        <v>3728.141491137677</v>
       </c>
       <c r="AD2" t="n">
-        <v>2842849.82135587</v>
+        <v>3012248.133550105</v>
       </c>
       <c r="AE2" t="n">
-        <v>3889712.543261905</v>
+        <v>4121490.787332164</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.090104942015145e-07</v>
+        <v>1.179445307079463e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.51236979166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3518483.837378684</v>
+        <v>3728141.491137677</v>
       </c>
     </row>
     <row r="3">
@@ -6632,28 +6632,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1499.032362762993</v>
+        <v>1609.111485898697</v>
       </c>
       <c r="AB3" t="n">
-        <v>2051.042211372765</v>
+        <v>2201.657323995203</v>
       </c>
       <c r="AC3" t="n">
-        <v>1855.29362137517</v>
+        <v>1991.534239038562</v>
       </c>
       <c r="AD3" t="n">
-        <v>1499032.362762993</v>
+        <v>1609111.485898697</v>
       </c>
       <c r="AE3" t="n">
-        <v>2051042.211372765</v>
+        <v>2201657.323995203</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.190734802161245e-06</v>
+        <v>1.735955941797032e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.16861979166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1855293.621375171</v>
+        <v>1991534.239038562</v>
       </c>
     </row>
     <row r="4">
@@ -6738,28 +6738,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1221.597991892364</v>
+        <v>1323.117591521056</v>
       </c>
       <c r="AB4" t="n">
-        <v>1671.444265606951</v>
+        <v>1810.34786054757</v>
       </c>
       <c r="AC4" t="n">
-        <v>1511.923970784183</v>
+        <v>1637.570801576089</v>
       </c>
       <c r="AD4" t="n">
-        <v>1221597.991892364</v>
+        <v>1323117.591521056</v>
       </c>
       <c r="AE4" t="n">
-        <v>1671444.265606951</v>
+        <v>1810347.86054757</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.335556486700631e-06</v>
+        <v>1.947089490023633e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.330078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1511923.970784183</v>
+        <v>1637570.801576089</v>
       </c>
     </row>
     <row r="5">
@@ -6844,28 +6844,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1090.166678364907</v>
+        <v>1183.29743619573</v>
       </c>
       <c r="AB5" t="n">
-        <v>1491.614144098358</v>
+        <v>1619.039755601552</v>
       </c>
       <c r="AC5" t="n">
-        <v>1349.25658367921</v>
+        <v>1464.520873663508</v>
       </c>
       <c r="AD5" t="n">
-        <v>1090166.678364907</v>
+        <v>1183297.43619573</v>
       </c>
       <c r="AE5" t="n">
-        <v>1491614.144098358</v>
+        <v>1619039.755601552</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.411652480890196e-06</v>
+        <v>2.058028796593459e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.07356770833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1349256.58367921</v>
+        <v>1464520.873663508</v>
       </c>
     </row>
     <row r="6">
@@ -6950,28 +6950,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>994.5026293816659</v>
+        <v>1087.548046357917</v>
       </c>
       <c r="AB6" t="n">
-        <v>1360.722371879507</v>
+        <v>1488.031216260504</v>
       </c>
       <c r="AC6" t="n">
-        <v>1230.85693849317</v>
+        <v>1346.01560544553</v>
       </c>
       <c r="AD6" t="n">
-        <v>994502.6293816658</v>
+        <v>1087548.046357917</v>
       </c>
       <c r="AE6" t="n">
-        <v>1360722.371879507</v>
+        <v>1488031.216260504</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.45874585087921e-06</v>
+        <v>2.126685574998937e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.36067708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1230856.93849317</v>
+        <v>1346015.60544553</v>
       </c>
     </row>
     <row r="7">
@@ -7056,28 +7056,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>970.9184658765444</v>
+        <v>1063.963882852796</v>
       </c>
       <c r="AB7" t="n">
-        <v>1328.453478911938</v>
+        <v>1455.762323292935</v>
       </c>
       <c r="AC7" t="n">
-        <v>1201.66774338075</v>
+        <v>1316.82641033311</v>
       </c>
       <c r="AD7" t="n">
-        <v>970918.4658765444</v>
+        <v>1063963.882852796</v>
       </c>
       <c r="AE7" t="n">
-        <v>1328453.478911938</v>
+        <v>1455762.323292935</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.472242121546793e-06</v>
+        <v>2.146361602956604e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.162109375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1201667.74338075</v>
+        <v>1316826.41033311</v>
       </c>
     </row>
     <row r="8">
@@ -7162,28 +7162,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>978.1868073580933</v>
+        <v>1071.232224334345</v>
       </c>
       <c r="AB8" t="n">
-        <v>1338.398344383589</v>
+        <v>1465.707188764585</v>
       </c>
       <c r="AC8" t="n">
-        <v>1210.663484849493</v>
+        <v>1325.822151801852</v>
       </c>
       <c r="AD8" t="n">
-        <v>978186.8073580933</v>
+        <v>1071232.224334345</v>
       </c>
       <c r="AE8" t="n">
-        <v>1338398.344383589</v>
+        <v>1465707.188764585</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.470710629839833e-06</v>
+        <v>2.14412886219545e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.18489583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1210663.484849493</v>
+        <v>1325822.151801852</v>
       </c>
     </row>
   </sheetData>
@@ -7459,28 +7459,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>726.8605488286977</v>
+        <v>823.4349137276954</v>
       </c>
       <c r="AB2" t="n">
-        <v>994.5226697316764</v>
+        <v>1126.659976346769</v>
       </c>
       <c r="AC2" t="n">
-        <v>899.6068219538179</v>
+        <v>1019.133129481441</v>
       </c>
       <c r="AD2" t="n">
-        <v>726860.5488286976</v>
+        <v>823434.9137276954</v>
       </c>
       <c r="AE2" t="n">
-        <v>994522.6697316763</v>
+        <v>1126659.976346769</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.518837044646667e-06</v>
+        <v>2.433533716818965e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.55078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>899606.8219538179</v>
+        <v>1019133.129481441</v>
       </c>
     </row>
     <row r="3">
@@ -7565,28 +7565,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>732.5510429944392</v>
+        <v>829.1254078934368</v>
       </c>
       <c r="AB3" t="n">
-        <v>1002.308654896128</v>
+        <v>1134.445961511221</v>
       </c>
       <c r="AC3" t="n">
-        <v>906.6497236218736</v>
+        <v>1026.176031149496</v>
       </c>
       <c r="AD3" t="n">
-        <v>732551.0429944391</v>
+        <v>829125.4078934367</v>
       </c>
       <c r="AE3" t="n">
-        <v>1002308.654896128</v>
+        <v>1134445.961511221</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.519638904463585e-06</v>
+        <v>2.434818484600678e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.53776041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>906649.7236218735</v>
+        <v>1026176.031149496</v>
       </c>
     </row>
   </sheetData>
@@ -7862,28 +7862,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1954.214119824164</v>
+        <v>2094.093396943132</v>
       </c>
       <c r="AB2" t="n">
-        <v>2673.841972585721</v>
+        <v>2865.230970578069</v>
       </c>
       <c r="AC2" t="n">
-        <v>2418.654247482917</v>
+        <v>2591.777348123021</v>
       </c>
       <c r="AD2" t="n">
-        <v>1954214.119824164</v>
+        <v>2094093.396943132</v>
       </c>
       <c r="AE2" t="n">
-        <v>2673841.97258572</v>
+        <v>2865230.970578069</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.919491768337134e-07</v>
+        <v>1.47288898711972e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.65625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2418654.247482917</v>
+        <v>2591777.348123021</v>
       </c>
     </row>
     <row r="3">
@@ -7968,28 +7968,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1167.777035552167</v>
+        <v>1266.490338069822</v>
       </c>
       <c r="AB3" t="n">
-        <v>1597.804058729278</v>
+        <v>1732.867954157484</v>
       </c>
       <c r="AC3" t="n">
-        <v>1445.311881896236</v>
+        <v>1567.485468708142</v>
       </c>
       <c r="AD3" t="n">
-        <v>1167777.035552168</v>
+        <v>1266490.338069822</v>
       </c>
       <c r="AE3" t="n">
-        <v>1597804.058729278</v>
+        <v>1732867.954157484</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.337957131072359e-06</v>
+        <v>1.986656544123658e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.21223958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1445311.881896236</v>
+        <v>1567485.468708142</v>
       </c>
     </row>
     <row r="4">
@@ -8074,28 +8074,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>963.6286745826636</v>
+        <v>1054.108764278345</v>
       </c>
       <c r="AB4" t="n">
-        <v>1318.479264860756</v>
+        <v>1442.278115282224</v>
       </c>
       <c r="AC4" t="n">
-        <v>1192.645454319715</v>
+        <v>1304.629116209737</v>
       </c>
       <c r="AD4" t="n">
-        <v>963628.6745826636</v>
+        <v>1054108.764278345</v>
       </c>
       <c r="AE4" t="n">
-        <v>1318479.264860756</v>
+        <v>1442278.115282224</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.467025959558849e-06</v>
+        <v>2.178303516063292e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.08333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1192645.454319715</v>
+        <v>1304629.116209737</v>
       </c>
     </row>
     <row r="5">
@@ -8180,28 +8180,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>891.544833275446</v>
+        <v>981.9395821165557</v>
       </c>
       <c r="AB5" t="n">
-        <v>1219.850973069583</v>
+        <v>1343.533056368855</v>
       </c>
       <c r="AC5" t="n">
-        <v>1103.430108271415</v>
+        <v>1215.308147129498</v>
       </c>
       <c r="AD5" t="n">
-        <v>891544.833275446</v>
+        <v>981939.5821165557</v>
       </c>
       <c r="AE5" t="n">
-        <v>1219850.973069584</v>
+        <v>1343533.056368855</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.509816704546659e-06</v>
+        <v>2.241841062658546e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.455078125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1103430.108271415</v>
+        <v>1215308.147129498</v>
       </c>
     </row>
     <row r="6">
@@ -8286,28 +8286,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>895.6171824506912</v>
+        <v>986.011931291801</v>
       </c>
       <c r="AB6" t="n">
-        <v>1225.422940870521</v>
+        <v>1349.105024169791</v>
       </c>
       <c r="AC6" t="n">
-        <v>1108.470295285737</v>
+        <v>1220.348334143819</v>
       </c>
       <c r="AD6" t="n">
-        <v>895617.1824506912</v>
+        <v>986011.931291801</v>
       </c>
       <c r="AE6" t="n">
-        <v>1225422.940870521</v>
+        <v>1349105.024169791</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.509518164465349e-06</v>
+        <v>2.241397777449741e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.45833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1108470.295285737</v>
+        <v>1220348.334143819</v>
       </c>
     </row>
   </sheetData>
@@ -8583,28 +8583,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2365.953848413945</v>
+        <v>2516.236366402994</v>
       </c>
       <c r="AB2" t="n">
-        <v>3237.202433917271</v>
+        <v>3442.825605026671</v>
       </c>
       <c r="AC2" t="n">
-        <v>2928.248377066237</v>
+        <v>3114.24716131888</v>
       </c>
       <c r="AD2" t="n">
-        <v>2365953.848413945</v>
+        <v>2516236.366402994</v>
       </c>
       <c r="AE2" t="n">
-        <v>3237202.433917271</v>
+        <v>3442825.605026671</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.955675097206375e-07</v>
+        <v>1.316880509232689e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.44270833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2928248.377066236</v>
+        <v>3114247.16131888</v>
       </c>
     </row>
     <row r="3">
@@ -8689,28 +8689,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1329.585892562471</v>
+        <v>1438.075879943287</v>
       </c>
       <c r="AB3" t="n">
-        <v>1819.198075393737</v>
+        <v>1967.638862368615</v>
       </c>
       <c r="AC3" t="n">
-        <v>1645.576364338693</v>
+        <v>1779.850170942642</v>
       </c>
       <c r="AD3" t="n">
-        <v>1329585.892562471</v>
+        <v>1438075.879943287</v>
       </c>
       <c r="AE3" t="n">
-        <v>1819198.075393737</v>
+        <v>1967638.862368615</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.261497271721895e-06</v>
+        <v>1.85495917566168e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.15950520833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1645576.364338693</v>
+        <v>1779850.170942642</v>
       </c>
     </row>
     <row r="4">
@@ -8795,28 +8795,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1089.899668524409</v>
+        <v>1190.116401129598</v>
       </c>
       <c r="AB4" t="n">
-        <v>1491.248809454945</v>
+        <v>1628.369764255571</v>
       </c>
       <c r="AC4" t="n">
-        <v>1348.926116061414</v>
+        <v>1472.960439386337</v>
       </c>
       <c r="AD4" t="n">
-        <v>1089899.668524409</v>
+        <v>1190116.401129598</v>
       </c>
       <c r="AE4" t="n">
-        <v>1491248.809454945</v>
+        <v>1628369.764255571</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.398001845876374e-06</v>
+        <v>2.055681300095623e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.70182291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1348926.116061414</v>
+        <v>1472960.439386337</v>
       </c>
     </row>
     <row r="5">
@@ -8901,28 +8901,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>968.6334680736547</v>
+        <v>1060.577035411768</v>
       </c>
       <c r="AB5" t="n">
-        <v>1325.327044111036</v>
+        <v>1451.128289206957</v>
       </c>
       <c r="AC5" t="n">
-        <v>1198.839691129267</v>
+        <v>1312.63464195639</v>
       </c>
       <c r="AD5" t="n">
-        <v>968633.4680736547</v>
+        <v>1060577.035411768</v>
       </c>
       <c r="AE5" t="n">
-        <v>1325327.044111036</v>
+        <v>1451128.289206957</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.468496708100438e-06</v>
+        <v>2.159339940071152e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.61458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1198839.691129267</v>
+        <v>1312634.64195639</v>
       </c>
     </row>
     <row r="6">
@@ -9007,28 +9007,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>929.5190095486003</v>
+        <v>1021.291984686122</v>
       </c>
       <c r="AB6" t="n">
-        <v>1271.808916348934</v>
+        <v>1397.376749670008</v>
       </c>
       <c r="AC6" t="n">
-        <v>1150.429258367616</v>
+        <v>1264.013073912088</v>
       </c>
       <c r="AD6" t="n">
-        <v>929519.0095486003</v>
+        <v>1021291.984686122</v>
       </c>
       <c r="AE6" t="n">
-        <v>1271808.916348934</v>
+        <v>1397376.749670008</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.490239936697901e-06</v>
+        <v>2.191312107034559e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.298828125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1150429.258367616</v>
+        <v>1264013.073912088</v>
       </c>
     </row>
     <row r="7">
@@ -9113,28 +9113,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>932.0844535376665</v>
+        <v>1023.857428675188</v>
       </c>
       <c r="AB7" t="n">
-        <v>1275.319069994175</v>
+        <v>1400.886903315249</v>
       </c>
       <c r="AC7" t="n">
-        <v>1153.604407875487</v>
+        <v>1267.188223419959</v>
       </c>
       <c r="AD7" t="n">
-        <v>932084.4535376665</v>
+        <v>1023857.428675188</v>
       </c>
       <c r="AE7" t="n">
-        <v>1275319.069994175</v>
+        <v>1400886.903315249</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.491702485706699e-06</v>
+        <v>2.193462701224922e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.27604166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1153604.407875487</v>
+        <v>1267188.223419959</v>
       </c>
     </row>
   </sheetData>
@@ -9410,28 +9410,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3409.463364318868</v>
+        <v>3598.096577192968</v>
       </c>
       <c r="AB2" t="n">
-        <v>4664.978189969225</v>
+        <v>4923.074473733602</v>
       </c>
       <c r="AC2" t="n">
-        <v>4219.759218856397</v>
+        <v>4453.223155538702</v>
       </c>
       <c r="AD2" t="n">
-        <v>3409463.364318868</v>
+        <v>3598096.577192968</v>
       </c>
       <c r="AE2" t="n">
-        <v>4664978.189969225</v>
+        <v>4923074.473733602</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.300299257804181e-07</v>
+        <v>1.056187225662123e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.96614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4219759.218856397</v>
+        <v>4453223.155538702</v>
       </c>
     </row>
     <row r="3">
@@ -9516,28 +9516,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1676.577324462788</v>
+        <v>1796.554665178804</v>
       </c>
       <c r="AB3" t="n">
-        <v>2293.967060701328</v>
+        <v>2458.125351295691</v>
       </c>
       <c r="AC3" t="n">
-        <v>2075.034064030984</v>
+        <v>2223.525317768628</v>
       </c>
       <c r="AD3" t="n">
-        <v>1676577.324462788</v>
+        <v>1796554.665178804</v>
       </c>
       <c r="AE3" t="n">
-        <v>2293967.060701328</v>
+        <v>2458125.351295691</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.125302026886227e-06</v>
+        <v>1.62805603419389e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.2265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>2075034.064030983</v>
+        <v>2223525.317768628</v>
       </c>
     </row>
     <row r="4">
@@ -9622,28 +9622,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1346.206315867956</v>
+        <v>1457.601571867092</v>
       </c>
       <c r="AB4" t="n">
-        <v>1841.938871801627</v>
+        <v>1994.354775471498</v>
       </c>
       <c r="AC4" t="n">
-        <v>1666.146811054322</v>
+        <v>1804.016354795005</v>
       </c>
       <c r="AD4" t="n">
-        <v>1346206.315867956</v>
+        <v>1457601.571867092</v>
       </c>
       <c r="AE4" t="n">
-        <v>1841938.871801627</v>
+        <v>1994354.775471498</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.277199448596887e-06</v>
+        <v>1.84781704775824e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.98763020833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1666146.811054322</v>
+        <v>1804016.354795005</v>
       </c>
     </row>
     <row r="5">
@@ -9728,28 +9728,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1200.016075708208</v>
+        <v>1302.914677353587</v>
       </c>
       <c r="AB5" t="n">
-        <v>1641.914935756845</v>
+        <v>1782.70534209397</v>
       </c>
       <c r="AC5" t="n">
-        <v>1485.212878730297</v>
+        <v>1612.566446287183</v>
       </c>
       <c r="AD5" t="n">
-        <v>1200016.075708208</v>
+        <v>1302914.677353587</v>
       </c>
       <c r="AE5" t="n">
-        <v>1641914.935756845</v>
+        <v>1782705.34209397</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.357100880463276e-06</v>
+        <v>1.963416242625733e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.57486979166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1485212.878730297</v>
+        <v>1612566.446287183</v>
       </c>
     </row>
     <row r="6">
@@ -9834,28 +9834,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1100.840367335502</v>
+        <v>1195.242314627123</v>
       </c>
       <c r="AB6" t="n">
-        <v>1506.218356237849</v>
+        <v>1635.383265242228</v>
       </c>
       <c r="AC6" t="n">
-        <v>1362.466990309249</v>
+        <v>1479.304581682338</v>
       </c>
       <c r="AD6" t="n">
-        <v>1100840.367335502</v>
+        <v>1195242.314627123</v>
       </c>
       <c r="AE6" t="n">
-        <v>1506218.356237849</v>
+        <v>1635383.265242228</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.408956815632157e-06</v>
+        <v>2.038439983935496e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.74479166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1362466.990309249</v>
+        <v>1479304.581682338</v>
       </c>
     </row>
     <row r="7">
@@ -9940,28 +9940,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1033.867477465754</v>
+        <v>1128.098832556782</v>
       </c>
       <c r="AB7" t="n">
-        <v>1414.583093682686</v>
+        <v>1543.514590912219</v>
       </c>
       <c r="AC7" t="n">
-        <v>1279.577268601452</v>
+        <v>1396.20372469189</v>
       </c>
       <c r="AD7" t="n">
-        <v>1033867.477465754</v>
+        <v>1128098.832556782</v>
       </c>
       <c r="AE7" t="n">
-        <v>1414583.093682686</v>
+        <v>1543514.590912219</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.44217849460605e-06</v>
+        <v>2.08650419570019e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.24348958333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1279577.268601452</v>
+        <v>1396203.72469189</v>
       </c>
     </row>
     <row r="8">
@@ -10046,28 +10046,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1011.308759105514</v>
+        <v>1097.128800697356</v>
       </c>
       <c r="AB8" t="n">
-        <v>1383.717260001791</v>
+        <v>1501.140027020775</v>
       </c>
       <c r="AC8" t="n">
-        <v>1251.657226766592</v>
+        <v>1357.873329705172</v>
       </c>
       <c r="AD8" t="n">
-        <v>1011308.759105514</v>
+        <v>1097128.800697356</v>
       </c>
       <c r="AE8" t="n">
-        <v>1383717.260001791</v>
+        <v>1501140.027020775</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.452624971563846e-06</v>
+        <v>2.101617871354243e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.09049479166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1251657.226766591</v>
+        <v>1357873.329705172</v>
       </c>
     </row>
     <row r="9">
@@ -10152,28 +10152,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1013.970698399582</v>
+        <v>1099.790739991425</v>
       </c>
       <c r="AB9" t="n">
-        <v>1387.359442780409</v>
+        <v>1504.782209799393</v>
       </c>
       <c r="AC9" t="n">
-        <v>1254.951804732654</v>
+        <v>1361.167907671234</v>
       </c>
       <c r="AD9" t="n">
-        <v>1013970.698399582</v>
+        <v>1099790.739991425</v>
       </c>
       <c r="AE9" t="n">
-        <v>1387359.442780409</v>
+        <v>1504782.209799393</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.452060297133695e-06</v>
+        <v>2.100800915913483e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.09700520833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1254951.804732654</v>
+        <v>1361167.907671234</v>
       </c>
     </row>
   </sheetData>
@@ -10449,28 +10449,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1606.509771967565</v>
+        <v>1727.861659119528</v>
       </c>
       <c r="AB2" t="n">
-        <v>2198.097544215111</v>
+        <v>2364.136549883846</v>
       </c>
       <c r="AC2" t="n">
-        <v>1988.314199644499</v>
+        <v>2138.506675649418</v>
       </c>
       <c r="AD2" t="n">
-        <v>1606509.771967565</v>
+        <v>1727861.659119528</v>
       </c>
       <c r="AE2" t="n">
-        <v>2198097.544215111</v>
+        <v>2364136.549883846</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.099095366138724e-06</v>
+        <v>1.650494600687479e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.15299479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1988314.199644499</v>
+        <v>2138506.675649418</v>
       </c>
     </row>
     <row r="3">
@@ -10555,28 +10555,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1004.830546113149</v>
+        <v>1101.809664710944</v>
       </c>
       <c r="AB3" t="n">
-        <v>1374.853483187051</v>
+        <v>1507.544591669311</v>
       </c>
       <c r="AC3" t="n">
-        <v>1243.639396370661</v>
+        <v>1363.666651692515</v>
       </c>
       <c r="AD3" t="n">
-        <v>1004830.546113149</v>
+        <v>1101809.664710944</v>
       </c>
       <c r="AE3" t="n">
-        <v>1374853.483187051</v>
+        <v>1507544.591669311</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.425514981130919e-06</v>
+        <v>2.140673914240426e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.24869791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1243639.396370661</v>
+        <v>1363666.651692515</v>
       </c>
     </row>
     <row r="4">
@@ -10661,28 +10661,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>856.6627657162065</v>
+        <v>945.7166672813947</v>
       </c>
       <c r="AB4" t="n">
-        <v>1172.123789346821</v>
+        <v>1293.971266249169</v>
       </c>
       <c r="AC4" t="n">
-        <v>1060.25793997763</v>
+        <v>1170.476464698426</v>
       </c>
       <c r="AD4" t="n">
-        <v>856662.7657162065</v>
+        <v>945716.6672813947</v>
       </c>
       <c r="AE4" t="n">
-        <v>1172123.789346821</v>
+        <v>1293971.266249169</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.524072120030621e-06</v>
+        <v>2.288675653329401e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.748046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1060257.93997763</v>
+        <v>1170476.464698426</v>
       </c>
     </row>
     <row r="5">
@@ -10767,28 +10767,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>853.1900234520364</v>
+        <v>942.2439250172246</v>
       </c>
       <c r="AB5" t="n">
-        <v>1167.372230174407</v>
+        <v>1289.219707076756</v>
       </c>
       <c r="AC5" t="n">
-        <v>1055.959862943777</v>
+        <v>1166.178387664572</v>
       </c>
       <c r="AD5" t="n">
-        <v>853190.0234520363</v>
+        <v>942243.9250172246</v>
       </c>
       <c r="AE5" t="n">
-        <v>1167372.230174407</v>
+        <v>1289219.707076756</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.529468327015832e-06</v>
+        <v>2.29677905433324e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.669921875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1055959.862943777</v>
+        <v>1166178.387664572</v>
       </c>
     </row>
   </sheetData>
@@ -11064,28 +11064,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1141.297435583475</v>
+        <v>1251.22678261803</v>
       </c>
       <c r="AB2" t="n">
-        <v>1561.57350185461</v>
+        <v>1711.983684207801</v>
       </c>
       <c r="AC2" t="n">
-        <v>1412.53911851978</v>
+        <v>1548.594364171199</v>
       </c>
       <c r="AD2" t="n">
-        <v>1141297.435583475</v>
+        <v>1251226.78261803</v>
       </c>
       <c r="AE2" t="n">
-        <v>1561573.50185461</v>
+        <v>1711983.684207801</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.293692009753869e-06</v>
+        <v>1.984195914014264e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.68619791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1412539.11851978</v>
+        <v>1548594.3641712</v>
       </c>
     </row>
     <row r="3">
@@ -11170,28 +11170,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>801.2379649720843</v>
+        <v>887.5928255389487</v>
       </c>
       <c r="AB3" t="n">
-        <v>1096.289131799076</v>
+        <v>1214.443661734231</v>
       </c>
       <c r="AC3" t="n">
-        <v>991.6608357116313</v>
+        <v>1098.5388631407</v>
       </c>
       <c r="AD3" t="n">
-        <v>801237.9649720844</v>
+        <v>887592.8255389486</v>
       </c>
       <c r="AE3" t="n">
-        <v>1096289.131799076</v>
+        <v>1214443.661734232</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.544942737013003e-06</v>
+        <v>2.36955090010213e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.34700520833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>991660.8357116313</v>
+        <v>1098538.8631407</v>
       </c>
     </row>
     <row r="4">
@@ -11276,28 +11276,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>799.7074369596543</v>
+        <v>886.0622975265186</v>
       </c>
       <c r="AB4" t="n">
-        <v>1094.194995850338</v>
+        <v>1212.349525785494</v>
       </c>
       <c r="AC4" t="n">
-        <v>989.7665611587033</v>
+        <v>1096.644588587772</v>
       </c>
       <c r="AD4" t="n">
-        <v>799707.4369596543</v>
+        <v>886062.2975265186</v>
       </c>
       <c r="AE4" t="n">
-        <v>1094194.995850338</v>
+        <v>1212349.525785494</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.550881969063029e-06</v>
+        <v>2.378660177949712e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.26236979166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>989766.5611587033</v>
+        <v>1096644.588587772</v>
       </c>
     </row>
   </sheetData>
@@ -20058,28 +20058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>863.1839407485381</v>
+        <v>962.6153888645626</v>
       </c>
       <c r="AB2" t="n">
-        <v>1181.046348719995</v>
+        <v>1317.092842638239</v>
       </c>
       <c r="AC2" t="n">
-        <v>1068.328942807119</v>
+        <v>1191.39135028826</v>
       </c>
       <c r="AD2" t="n">
-        <v>863183.9407485381</v>
+        <v>962615.3888645626</v>
       </c>
       <c r="AE2" t="n">
-        <v>1181046.348719995</v>
+        <v>1317092.842638239</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.457740996936827e-06</v>
+        <v>2.27769155323975e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.49869791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1068328.942807119</v>
+        <v>1191391.35028826</v>
       </c>
     </row>
     <row r="3">
@@ -20164,28 +20164,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>755.1786085709202</v>
+        <v>847.1123887974454</v>
       </c>
       <c r="AB3" t="n">
-        <v>1033.268688375609</v>
+        <v>1159.056542313679</v>
       </c>
       <c r="AC3" t="n">
-        <v>934.6549749587529</v>
+        <v>1048.437812661334</v>
       </c>
       <c r="AD3" t="n">
-        <v>755178.6085709202</v>
+        <v>847112.3887974455</v>
       </c>
       <c r="AE3" t="n">
-        <v>1033268.688375609</v>
+        <v>1159056.542313679</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.553080571433561e-06</v>
+        <v>2.426657757782938e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.99479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>934654.9749587529</v>
+        <v>1048437.812661335</v>
       </c>
     </row>
   </sheetData>
@@ -20461,28 +20461,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>722.9095391642411</v>
+        <v>817.6171178873615</v>
       </c>
       <c r="AB2" t="n">
-        <v>989.1167240025223</v>
+        <v>1118.699811414986</v>
       </c>
       <c r="AC2" t="n">
-        <v>894.7168120977618</v>
+        <v>1011.932671518586</v>
       </c>
       <c r="AD2" t="n">
-        <v>722909.5391642411</v>
+        <v>817617.1178873614</v>
       </c>
       <c r="AE2" t="n">
-        <v>989116.7240025223</v>
+        <v>1118699.811414986</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.466275973795953e-06</v>
+        <v>2.389554959026811e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.142578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>894716.8120977618</v>
+        <v>1011932.671518586</v>
       </c>
     </row>
   </sheetData>
@@ -20758,28 +20758,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2155.215251503364</v>
+        <v>2296.182326024107</v>
       </c>
       <c r="AB2" t="n">
-        <v>2948.860588493291</v>
+        <v>3141.737958881162</v>
       </c>
       <c r="AC2" t="n">
-        <v>2667.425472679321</v>
+        <v>2841.894897542345</v>
       </c>
       <c r="AD2" t="n">
-        <v>2155215.251503364</v>
+        <v>2296182.326024107</v>
       </c>
       <c r="AE2" t="n">
-        <v>2948860.588493291</v>
+        <v>3141737.958881162</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.428152587158665e-07</v>
+        <v>1.392897165669666e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.00065104166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2667425.472679321</v>
+        <v>2841894.897542344</v>
       </c>
     </row>
     <row r="3">
@@ -20864,28 +20864,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1243.071719346969</v>
+        <v>1350.849921802273</v>
       </c>
       <c r="AB3" t="n">
-        <v>1700.825566864336</v>
+        <v>1848.292458302395</v>
       </c>
       <c r="AC3" t="n">
-        <v>1538.501161886478</v>
+        <v>1671.894020176771</v>
       </c>
       <c r="AD3" t="n">
-        <v>1243071.719346969</v>
+        <v>1350849.921802273</v>
       </c>
       <c r="AE3" t="n">
-        <v>1700825.566864335</v>
+        <v>1848292.458302395</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.299497613747083e-06</v>
+        <v>1.919852830392407e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.66796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1538501.161886479</v>
+        <v>1671894.020176771</v>
       </c>
     </row>
     <row r="4">
@@ -20970,28 +20970,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1029.378249204298</v>
+        <v>1120.562149889711</v>
       </c>
       <c r="AB4" t="n">
-        <v>1408.44073352459</v>
+        <v>1533.202569192158</v>
       </c>
       <c r="AC4" t="n">
-        <v>1274.021126675987</v>
+        <v>1386.875867851778</v>
       </c>
       <c r="AD4" t="n">
-        <v>1029378.249204298</v>
+        <v>1120562.149889711</v>
       </c>
       <c r="AE4" t="n">
-        <v>1408440.73352459</v>
+        <v>1533202.569192158</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.430865438598448e-06</v>
+        <v>2.113933133192004e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.40559895833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1274021.126675987</v>
+        <v>1386875.867851778</v>
       </c>
     </row>
     <row r="5">
@@ -21076,28 +21076,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>925.5463942475146</v>
+        <v>1016.644954078356</v>
       </c>
       <c r="AB5" t="n">
-        <v>1266.37340883457</v>
+        <v>1391.018477379941</v>
       </c>
       <c r="AC5" t="n">
-        <v>1145.512508061641</v>
+        <v>1258.261626205494</v>
       </c>
       <c r="AD5" t="n">
-        <v>925546.3942475147</v>
+        <v>1016644.954078356</v>
       </c>
       <c r="AE5" t="n">
-        <v>1266373.408834571</v>
+        <v>1391018.477379941</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.491822472768609e-06</v>
+        <v>2.203989885390616e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.48763020833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1145512.508061641</v>
+        <v>1258261.626205494</v>
       </c>
     </row>
     <row r="6">
@@ -21182,28 +21182,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>914.2048804871032</v>
+        <v>1005.303440317944</v>
       </c>
       <c r="AB6" t="n">
-        <v>1250.855449355302</v>
+        <v>1375.500517900672</v>
       </c>
       <c r="AC6" t="n">
-        <v>1131.47556085548</v>
+        <v>1244.224678999333</v>
       </c>
       <c r="AD6" t="n">
-        <v>914204.8804871032</v>
+        <v>1005303.440317944</v>
       </c>
       <c r="AE6" t="n">
-        <v>1250855.449355301</v>
+        <v>1375500.517900672</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.499700603194478e-06</v>
+        <v>2.215628884059258e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.37369791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1131475.56085548</v>
+        <v>1244224.678999333</v>
       </c>
     </row>
     <row r="7">
@@ -21288,28 +21288,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>918.3411120461382</v>
+        <v>1009.439671876979</v>
       </c>
       <c r="AB7" t="n">
-        <v>1256.514823852031</v>
+        <v>1381.159892397402</v>
       </c>
       <c r="AC7" t="n">
-        <v>1136.594812593224</v>
+        <v>1249.343930737076</v>
       </c>
       <c r="AD7" t="n">
-        <v>918341.1120461382</v>
+        <v>1009439.671876979</v>
       </c>
       <c r="AE7" t="n">
-        <v>1256514.823852031</v>
+        <v>1381159.892397402</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.499700603194478e-06</v>
+        <v>2.215628884059258e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.376953125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1136594.812593224</v>
+        <v>1249343.930737076</v>
       </c>
     </row>
   </sheetData>
@@ -21585,28 +21585,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3119.801484019934</v>
+        <v>3290.295889488046</v>
       </c>
       <c r="AB2" t="n">
-        <v>4268.650026363935</v>
+        <v>4501.927993607736</v>
       </c>
       <c r="AC2" t="n">
-        <v>3861.25605893554</v>
+        <v>4072.270304393267</v>
       </c>
       <c r="AD2" t="n">
-        <v>3119801.484019934</v>
+        <v>3290295.889488046</v>
       </c>
       <c r="AE2" t="n">
-        <v>4268650.026363935</v>
+        <v>4501927.993607736</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.683665531948892e-07</v>
+        <v>1.115798101195127e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.20182291666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3861256.05893554</v>
+        <v>4072270.304393267</v>
       </c>
     </row>
     <row r="3">
@@ -21691,28 +21691,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1580.316030863424</v>
+        <v>1699.636449778745</v>
       </c>
       <c r="AB3" t="n">
-        <v>2162.258112050125</v>
+        <v>2325.517573255433</v>
       </c>
       <c r="AC3" t="n">
-        <v>1955.895232584381</v>
+        <v>2103.573439948347</v>
       </c>
       <c r="AD3" t="n">
-        <v>1580316.030863424</v>
+        <v>1699636.449778745</v>
       </c>
       <c r="AE3" t="n">
-        <v>2162258.112050125</v>
+        <v>2325517.573255433</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.158101199850615e-06</v>
+        <v>1.681758679385616e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.67317708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1955895.232584381</v>
+        <v>2103573.439948347</v>
       </c>
     </row>
     <row r="4">
@@ -21797,28 +21797,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1286.290856132543</v>
+        <v>1388.638650221023</v>
       </c>
       <c r="AB4" t="n">
-        <v>1759.959896508106</v>
+        <v>1899.996663645968</v>
       </c>
       <c r="AC4" t="n">
-        <v>1591.991794104601</v>
+        <v>1718.663648729662</v>
       </c>
       <c r="AD4" t="n">
-        <v>1286290.856132543</v>
+        <v>1388638.650221023</v>
       </c>
       <c r="AE4" t="n">
-        <v>1759959.896508106</v>
+        <v>1899996.663645968</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.304144935230006e-06</v>
+        <v>1.893838866830263e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.68489583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1591991.794104601</v>
+        <v>1718663.648729662</v>
       </c>
     </row>
     <row r="5">
@@ -21903,28 +21903,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1143.620961348173</v>
+        <v>1237.354521249926</v>
       </c>
       <c r="AB5" t="n">
-        <v>1564.752652312592</v>
+        <v>1693.003044202982</v>
       </c>
       <c r="AC5" t="n">
-        <v>1415.414855320018</v>
+        <v>1531.425209808945</v>
       </c>
       <c r="AD5" t="n">
-        <v>1143620.961348173</v>
+        <v>1237354.521249926</v>
       </c>
       <c r="AE5" t="n">
-        <v>1564752.652312592</v>
+        <v>1693003.044202982</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.383951810768712e-06</v>
+        <v>2.009731938721717e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.32096354166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1415414.855320018</v>
+        <v>1531425.209808945</v>
       </c>
     </row>
     <row r="6">
@@ -22009,28 +22009,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1047.665616884684</v>
+        <v>1141.484428132457</v>
       </c>
       <c r="AB6" t="n">
-        <v>1433.462316766616</v>
+        <v>1561.829353309655</v>
       </c>
       <c r="AC6" t="n">
-        <v>1296.654685131406</v>
+        <v>1412.770551871046</v>
       </c>
       <c r="AD6" t="n">
-        <v>1047665.616884684</v>
+        <v>1141484.428132457</v>
       </c>
       <c r="AE6" t="n">
-        <v>1433462.316766616</v>
+        <v>1561829.353309655</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.433771798471234e-06</v>
+        <v>2.082078981222326e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.54296875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1296654.685131406</v>
+        <v>1412770.551871046</v>
       </c>
     </row>
     <row r="7">
@@ -22115,28 +22115,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>996.482213829315</v>
+        <v>1090.130432876496</v>
       </c>
       <c r="AB7" t="n">
-        <v>1363.430926653883</v>
+        <v>1491.564551422076</v>
       </c>
       <c r="AC7" t="n">
-        <v>1233.30699260136</v>
+        <v>1349.211724058348</v>
       </c>
       <c r="AD7" t="n">
-        <v>996482.213829315</v>
+        <v>1090130.432876496</v>
       </c>
       <c r="AE7" t="n">
-        <v>1363430.926653883</v>
+        <v>1491564.551422076</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.459583296861874e-06</v>
+        <v>2.119561639432167e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.162109375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1233306.99260136</v>
+        <v>1349211.724058348</v>
       </c>
     </row>
     <row r="8">
@@ -22221,28 +22221,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>996.5638733842403</v>
+        <v>1090.212092431421</v>
       </c>
       <c r="AB8" t="n">
-        <v>1363.542656859497</v>
+        <v>1491.67628162769</v>
       </c>
       <c r="AC8" t="n">
-        <v>1233.408059432964</v>
+        <v>1349.312790889953</v>
       </c>
       <c r="AD8" t="n">
-        <v>996563.8733842403</v>
+        <v>1090212.092431421</v>
       </c>
       <c r="AE8" t="n">
-        <v>1363542.656859497</v>
+        <v>1491676.28162769</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.461386305940631e-06</v>
+        <v>2.122179913351237e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.13932291666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1233408.059432964</v>
+        <v>1349312.790889953</v>
       </c>
     </row>
     <row r="9">
@@ -22327,28 +22327,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000.770922717823</v>
+        <v>1094.419141765004</v>
       </c>
       <c r="AB9" t="n">
-        <v>1369.298927359623</v>
+        <v>1497.432552127816</v>
       </c>
       <c r="AC9" t="n">
-        <v>1238.614959555535</v>
+        <v>1354.519691012523</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000770.922717823</v>
+        <v>1094419.141765004</v>
       </c>
       <c r="AE9" t="n">
-        <v>1369298.927359623</v>
+        <v>1497432.552127816</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.46129141072596e-06</v>
+        <v>2.122042109460759e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.13932291666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1238614.959555535</v>
+        <v>1354519.691012523</v>
       </c>
     </row>
   </sheetData>
@@ -22624,28 +22624,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>732.455963033988</v>
+        <v>839.1909225879049</v>
       </c>
       <c r="AB2" t="n">
-        <v>1002.178562299607</v>
+        <v>1148.21804277536</v>
       </c>
       <c r="AC2" t="n">
-        <v>906.5320468801784</v>
+        <v>1038.633724307023</v>
       </c>
       <c r="AD2" t="n">
-        <v>732455.963033988</v>
+        <v>839190.9225879048</v>
       </c>
       <c r="AE2" t="n">
-        <v>1002178.562299607</v>
+        <v>1148218.04277536</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.340794969850356e-06</v>
+        <v>2.235025331460992e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.60286458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>906532.0468801784</v>
+        <v>1038633.724307023</v>
       </c>
     </row>
   </sheetData>
@@ -22921,28 +22921,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1286.144228023986</v>
+        <v>1405.11166095208</v>
       </c>
       <c r="AB2" t="n">
-        <v>1759.759273461202</v>
+        <v>1922.535763666143</v>
       </c>
       <c r="AC2" t="n">
-        <v>1591.810318239716</v>
+        <v>1739.051648677737</v>
       </c>
       <c r="AD2" t="n">
-        <v>1286144.228023986</v>
+        <v>1405111.660952081</v>
       </c>
       <c r="AE2" t="n">
-        <v>1759759.273461202</v>
+        <v>1922535.763666143</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.22341555903922e-06</v>
+        <v>1.861924240419319e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.80924479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1591810.318239717</v>
+        <v>1739051.648677737</v>
       </c>
     </row>
     <row r="3">
@@ -23027,28 +23027,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>850.6020775813918</v>
+        <v>945.6566362360185</v>
       </c>
       <c r="AB3" t="n">
-        <v>1163.831288462078</v>
+        <v>1293.889129124502</v>
       </c>
       <c r="AC3" t="n">
-        <v>1052.756863738729</v>
+        <v>1170.402166625657</v>
       </c>
       <c r="AD3" t="n">
-        <v>850602.0775813918</v>
+        <v>945656.6362360185</v>
       </c>
       <c r="AE3" t="n">
-        <v>1163831.288462078</v>
+        <v>1293889.129124502</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.51604870147129e-06</v>
+        <v>2.307284557621957e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.44140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1052756.863738729</v>
+        <v>1170402.166625657</v>
       </c>
     </row>
     <row r="4">
@@ -23133,28 +23133,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>818.3339354525822</v>
+        <v>905.6166348405361</v>
       </c>
       <c r="AB4" t="n">
-        <v>1119.68059283148</v>
+        <v>1239.104632775011</v>
       </c>
       <c r="AC4" t="n">
-        <v>1012.819848533225</v>
+        <v>1120.846225717238</v>
       </c>
       <c r="AD4" t="n">
-        <v>818333.9354525822</v>
+        <v>905616.6348405362</v>
       </c>
       <c r="AE4" t="n">
-        <v>1119680.59283148</v>
+        <v>1239104.632775011</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.544998480204748e-06</v>
+        <v>2.35134341757379e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.01822916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1012819.848533225</v>
+        <v>1120846.225717238</v>
       </c>
     </row>
   </sheetData>
@@ -23430,28 +23430,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1774.246822576633</v>
+        <v>1904.73576882454</v>
       </c>
       <c r="AB2" t="n">
-        <v>2427.602776894843</v>
+        <v>2606.143509917245</v>
       </c>
       <c r="AC2" t="n">
-        <v>2195.915775029895</v>
+        <v>2357.416831076131</v>
       </c>
       <c r="AD2" t="n">
-        <v>1774246.822576633</v>
+        <v>1904735.76882454</v>
       </c>
       <c r="AE2" t="n">
-        <v>2427602.776894843</v>
+        <v>2606143.509917245</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.04395840746627e-06</v>
+        <v>1.558536670619895e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.37369791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2195915.775029895</v>
+        <v>2357416.831076131</v>
       </c>
     </row>
     <row r="3">
@@ -23536,28 +23536,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1081.25310407628</v>
+        <v>1179.247757912654</v>
       </c>
       <c r="AB3" t="n">
-        <v>1479.418198517514</v>
+        <v>1613.498807115451</v>
       </c>
       <c r="AC3" t="n">
-        <v>1338.224602027484</v>
+        <v>1459.50874552415</v>
       </c>
       <c r="AD3" t="n">
-        <v>1081253.10407628</v>
+        <v>1179247.757912654</v>
       </c>
       <c r="AE3" t="n">
-        <v>1479418.198517514</v>
+        <v>1613498.807115451</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.381245017762842e-06</v>
+        <v>2.06207545808186e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.71419270833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1338224.602027484</v>
+        <v>1459508.74552415</v>
       </c>
     </row>
     <row r="4">
@@ -23642,28 +23642,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>901.8304831511044</v>
+        <v>999.6544552783355</v>
       </c>
       <c r="AB4" t="n">
-        <v>1233.924253000307</v>
+        <v>1367.771327353848</v>
       </c>
       <c r="AC4" t="n">
-        <v>1116.160254117523</v>
+        <v>1237.233151550311</v>
       </c>
       <c r="AD4" t="n">
-        <v>901830.4831511044</v>
+        <v>999654.4552783355</v>
       </c>
       <c r="AE4" t="n">
-        <v>1233924.253000307</v>
+        <v>1367771.327353848</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.497866491907749e-06</v>
+        <v>2.236180903985326e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.86848958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1116160.254117523</v>
+        <v>1237233.151550311</v>
       </c>
     </row>
     <row r="5">
@@ -23748,28 +23748,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>871.5338410011686</v>
+        <v>961.3622736845117</v>
       </c>
       <c r="AB5" t="n">
-        <v>1192.471050617245</v>
+        <v>1315.378275165353</v>
       </c>
       <c r="AC5" t="n">
-        <v>1078.663287189965</v>
+        <v>1189.840418728576</v>
       </c>
       <c r="AD5" t="n">
-        <v>871533.8410011686</v>
+        <v>961362.2736845117</v>
       </c>
       <c r="AE5" t="n">
-        <v>1192471.050617245</v>
+        <v>1315378.275165353</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.519600951282469e-06</v>
+        <v>2.268628510814617e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.55598958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1078663.287189965</v>
+        <v>1189840.418728576</v>
       </c>
     </row>
   </sheetData>
